--- a/TestExecution.xlsx
+++ b/TestExecution.xlsx
@@ -17392,8 +17392,8 @@
   </sheetPr>
   <dimension ref="A1:Q1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1008" sqref="F1008"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17500,11 +17500,11 @@
         <v>0</v>
       </c>
       <c r="O2" s="7">
-        <f>COUNTIF(H:H,N2)</f>
+        <f t="shared" ref="O2:O37" si="0">COUNTIF(H:H,N2)</f>
         <v>600</v>
       </c>
       <c r="P2" s="9">
-        <f>COUNTIF(I:I,N2)</f>
+        <f t="shared" ref="P2:P37" si="1">COUNTIF(I:I,N2)</f>
         <v>569</v>
       </c>
       <c r="Q2" s="12">
@@ -17553,11 +17553,11 @@
         <v>1</v>
       </c>
       <c r="O3" s="7">
-        <f>COUNTIF(H:H,N3)</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="P3" s="9">
-        <f>COUNTIF(I:I,N3)</f>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="Q3" s="12">
@@ -17605,11 +17605,11 @@
         <v>2</v>
       </c>
       <c r="O4" s="7">
-        <f>COUNTIF(H:H,N4)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="P4" s="9">
-        <f>COUNTIF(I:I,N4)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="Q4" s="12">
@@ -17658,11 +17658,11 @@
         <v>3</v>
       </c>
       <c r="O5" s="7">
-        <f>COUNTIF(H:H,N5)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="P5" s="9">
-        <f>COUNTIF(I:I,N5)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="Q5" s="12">
@@ -17711,11 +17711,11 @@
         <v>4</v>
       </c>
       <c r="O6" s="7">
-        <f>COUNTIF(H:H,N6)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="P6" s="9">
-        <f>COUNTIF(I:I,N6)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="Q6" s="12">
@@ -17757,18 +17757,18 @@
         <v>33</v>
       </c>
       <c r="L7" s="11">
-        <f>SUM(P6:P37)/L4</f>
-        <v>2.6333333333333334E-2</v>
+        <f>SUM(P6:P37)/L3</f>
+        <v>7.8763708873379856E-2</v>
       </c>
       <c r="N7" s="3">
         <v>5</v>
       </c>
       <c r="O7" s="7">
-        <f>COUNTIF(H:H,N7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P7" s="9">
-        <f>COUNTIF(I:I,N7)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="Q7" s="12">
@@ -17810,11 +17810,11 @@
         <v>6</v>
       </c>
       <c r="O8" s="7">
-        <f>COUNTIF(H:H,N8)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P8" s="9">
-        <f>COUNTIF(I:I,N8)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="Q8" s="12">
@@ -17856,11 +17856,11 @@
         <v>7</v>
       </c>
       <c r="O9" s="7">
-        <f>COUNTIF(H:H,N9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P9" s="9">
-        <f>COUNTIF(I:I,N9)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q9" s="12">
@@ -17902,11 +17902,11 @@
         <v>8</v>
       </c>
       <c r="O10" s="7">
-        <f>COUNTIF(H:H,N10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P10" s="9">
-        <f>COUNTIF(I:I,N10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="Q10" s="12">
@@ -17948,11 +17948,11 @@
         <v>9</v>
       </c>
       <c r="O11" s="7">
-        <f>COUNTIF(H:H,N11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P11" s="9">
-        <f>COUNTIF(I:I,N11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q11" s="12">
@@ -17994,11 +17994,11 @@
         <v>10</v>
       </c>
       <c r="O12" s="7">
-        <f>COUNTIF(H:H,N12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P12" s="9">
-        <f>COUNTIF(I:I,N12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q12" s="12">
@@ -18040,11 +18040,11 @@
         <v>11</v>
       </c>
       <c r="O13" s="7">
-        <f>COUNTIF(H:H,N13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P13" s="9">
-        <f>COUNTIF(I:I,N13)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q13" s="12">
@@ -18086,11 +18086,11 @@
         <v>12</v>
       </c>
       <c r="O14" s="7">
-        <f>COUNTIF(H:H,N14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P14" s="9">
-        <f>COUNTIF(I:I,N14)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q14" s="12">
@@ -18132,11 +18132,11 @@
         <v>13</v>
       </c>
       <c r="O15" s="7">
-        <f>COUNTIF(H:H,N15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P15" s="9">
-        <f>COUNTIF(I:I,N15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q15" s="12">
@@ -18178,11 +18178,11 @@
         <v>14</v>
       </c>
       <c r="O16" s="7">
-        <f>COUNTIF(H:H,N16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P16" s="9">
-        <f>COUNTIF(I:I,N16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16" s="12">
@@ -18224,11 +18224,11 @@
         <v>15</v>
       </c>
       <c r="O17" s="7">
-        <f>COUNTIF(H:H,N17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P17" s="9">
-        <f>COUNTIF(I:I,N17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="12">
@@ -18270,11 +18270,11 @@
         <v>16</v>
       </c>
       <c r="O18" s="7">
-        <f>COUNTIF(H:H,N18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P18" s="9">
-        <f>COUNTIF(I:I,N18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q18" s="12">
@@ -18316,11 +18316,11 @@
         <v>17</v>
       </c>
       <c r="O19" s="7">
-        <f>COUNTIF(H:H,N19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P19" s="9">
-        <f>COUNTIF(I:I,N19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="12">
@@ -18362,11 +18362,11 @@
         <v>18</v>
       </c>
       <c r="O20" s="7">
-        <f>COUNTIF(H:H,N20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="9">
-        <f>COUNTIF(I:I,N20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="12">
@@ -18408,11 +18408,11 @@
         <v>19</v>
       </c>
       <c r="O21" s="7">
-        <f>COUNTIF(H:H,N21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P21" s="9">
-        <f>COUNTIF(I:I,N21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="12">
@@ -18454,11 +18454,11 @@
         <v>20</v>
       </c>
       <c r="O22" s="7">
-        <f>COUNTIF(H:H,N22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P22" s="9">
-        <f>COUNTIF(I:I,N22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="12">
@@ -18500,11 +18500,11 @@
         <v>21</v>
       </c>
       <c r="O23" s="7">
-        <f>COUNTIF(H:H,N23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P23" s="9">
-        <f>COUNTIF(I:I,N23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="12">
@@ -18546,11 +18546,11 @@
         <v>22</v>
       </c>
       <c r="O24" s="7">
-        <f>COUNTIF(H:H,N24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P24" s="9">
-        <f>COUNTIF(I:I,N24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="12">
@@ -18592,11 +18592,11 @@
         <v>23</v>
       </c>
       <c r="O25" s="7">
-        <f>COUNTIF(H:H,N25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P25" s="9">
-        <f>COUNTIF(I:I,N25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="12">
@@ -18638,11 +18638,11 @@
         <v>24</v>
       </c>
       <c r="O26" s="7">
-        <f>COUNTIF(H:H,N26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="9">
-        <f>COUNTIF(I:I,N26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="12">
@@ -18684,11 +18684,11 @@
         <v>25</v>
       </c>
       <c r="O27" s="7">
-        <f>COUNTIF(H:H,N27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P27" s="9">
-        <f>COUNTIF(I:I,N27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="12">
@@ -18730,11 +18730,11 @@
         <v>26</v>
       </c>
       <c r="O28" s="7">
-        <f>COUNTIF(H:H,N28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P28" s="9">
-        <f>COUNTIF(I:I,N28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="12">
@@ -18776,11 +18776,11 @@
         <v>27</v>
       </c>
       <c r="O29" s="7">
-        <f>COUNTIF(H:H,N29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P29" s="9">
-        <f>COUNTIF(I:I,N29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="12">
@@ -18822,11 +18822,11 @@
         <v>28</v>
       </c>
       <c r="O30" s="7">
-        <f>COUNTIF(H:H,N30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P30" s="9">
-        <f>COUNTIF(I:I,N30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30" s="12">
@@ -18868,11 +18868,11 @@
         <v>29</v>
       </c>
       <c r="O31" s="7">
-        <f>COUNTIF(H:H,N31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P31" s="9">
-        <f>COUNTIF(I:I,N31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="12">
@@ -18914,11 +18914,11 @@
         <v>30</v>
       </c>
       <c r="O32" s="7">
-        <f>COUNTIF(H:H,N32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P32" s="9">
-        <f>COUNTIF(I:I,N32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="12">
@@ -18960,11 +18960,11 @@
         <v>31</v>
       </c>
       <c r="O33" s="7">
-        <f>COUNTIF(H:H,N33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P33" s="9">
-        <f>COUNTIF(I:I,N33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="12">
@@ -19006,11 +19006,11 @@
         <v>32</v>
       </c>
       <c r="O34" s="7">
-        <f>COUNTIF(H:H,N34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P34" s="9">
-        <f>COUNTIF(I:I,N34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="12">
@@ -19052,11 +19052,11 @@
         <v>33</v>
       </c>
       <c r="O35" s="7">
-        <f>COUNTIF(H:H,N35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P35" s="9">
-        <f>COUNTIF(I:I,N35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q35" s="12">
@@ -19098,11 +19098,11 @@
         <v>34</v>
       </c>
       <c r="O36" s="7">
-        <f>COUNTIF(H:H,N36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P36" s="9">
-        <f>COUNTIF(I:I,N36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="12">
@@ -19144,11 +19144,11 @@
         <v>35</v>
       </c>
       <c r="O37" s="6">
-        <f>COUNTIF(H:H,N37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P37" s="9">
-        <f>COUNTIF(I:I,N37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="12">
